--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -1,32 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>Pollutant</t>
+  </si>
+  <si>
+    <t>Emission type</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>Incidence rounded</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>All modeled pollutants</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CEOT0001</t>
+  </si>
+  <si>
+    <t>Ethyl benzene</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Xylenes (mixed)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -42,16 +84,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -339,225 +380,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Source ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Pollutant</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Emission type</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Incidence</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Incidence rounded</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>All modeled pollutants</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D2">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.76378553802e-06</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>1.8e-06</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CEOT0001</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ethyl benzene</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.76378553802e-06</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1.8e-06</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CEOT0001</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Toluene</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>CEOT0001</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Xylenes (mixed)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ethyl benzene</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.76378553802e-06</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>1.8e-06</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Toluene</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Xylenes (mixed)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CEOT0001</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>All modeled pollutants</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D9">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.76378553802e-06</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>1.8e-06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -421,10 +421,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.76378553802e-06</v>
+        <v>1.90094648465e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>1.8e-06</v>
+        <v>1.9e-06</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -438,10 +438,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.76378553802e-06</v>
+        <v>1.90094648465e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8e-06</v>
+        <v>1.9e-06</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.76378553802e-06</v>
+        <v>1.90094648465e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>1.8e-06</v>
+        <v>1.9e-06</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -540,10 +540,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>1.76378553802e-06</v>
+        <v>1.90094648465e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>1.8e-06</v>
+        <v>1.9e-06</v>
       </c>
     </row>
   </sheetData>

--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -385,7 +385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,27 +446,27 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.90094648465e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.9e-06</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -483,66 +483,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.90094648465e-06</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.9e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.90094648465e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.90094648465e-06</v>
-      </c>
-      <c r="E9" t="n">
         <v>1.9e-06</v>
       </c>
     </row>

--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -421,10 +421,10 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.90094648465e-06</v>
+        <v>1.81144594409e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9e-06</v>
+        <v>1.8e-06</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -438,10 +438,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.90094648465e-06</v>
+        <v>1.81144594409e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>1.9e-06</v>
+        <v>1.8e-06</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -455,10 +455,10 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.90094648465e-06</v>
+        <v>1.81144594409e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>1.9e-06</v>
+        <v>1.8e-06</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -506,10 +506,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.90094648465e-06</v>
+        <v>1.81144594409e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>1.9e-06</v>
+        <v>1.8e-06</v>
       </c>
     </row>
   </sheetData>

--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -421,7 +421,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.81144594409e-06</v>
+        <v>1.80864541952e-06</v>
       </c>
       <c r="E2" t="n">
         <v>1.8e-06</v>
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.81144594409e-06</v>
+        <v>1.80864541952e-06</v>
       </c>
       <c r="E3" t="n">
         <v>1.8e-06</v>
@@ -455,7 +455,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.81144594409e-06</v>
+        <v>1.80864541952e-06</v>
       </c>
       <c r="E4" t="n">
         <v>1.8e-06</v>
@@ -506,7 +506,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.81144594409e-06</v>
+        <v>1.80864541952e-06</v>
       </c>
       <c r="E7" t="n">
         <v>1.8e-06</v>

--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -57,10 +57,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -86,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -394,19 +403,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -421,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.80864541952e-06</v>
+        <v>1.83435576098e-06</v>
       </c>
       <c r="E2" t="n">
         <v>1.8e-06</v>
@@ -438,7 +447,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.80864541952e-06</v>
+        <v>1.83435576098e-06</v>
       </c>
       <c r="E3" t="n">
         <v>1.8e-06</v>
@@ -455,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.80864541952e-06</v>
+        <v>1.83435576098e-06</v>
       </c>
       <c r="E4" t="n">
         <v>1.8e-06</v>
@@ -506,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.80864541952e-06</v>
+        <v>1.83435576098e-06</v>
       </c>
       <c r="E7" t="n">
         <v>1.8e-06</v>

--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -430,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.83435576098e-06</v>
+        <v>1.80935904413e-06</v>
       </c>
       <c r="E2" t="n">
         <v>1.8e-06</v>
@@ -447,7 +447,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.83435576098e-06</v>
+        <v>1.80935904413e-06</v>
       </c>
       <c r="E3" t="n">
         <v>1.8e-06</v>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.83435576098e-06</v>
+        <v>1.80935904413e-06</v>
       </c>
       <c r="E4" t="n">
         <v>1.8e-06</v>
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.83435576098e-06</v>
+        <v>1.80935904413e-06</v>
       </c>
       <c r="E7" t="n">
         <v>1.8e-06</v>

--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -430,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.80935904413e-06</v>
+        <v>1.80857518359e-06</v>
       </c>
       <c r="E2" t="n">
         <v>1.8e-06</v>
@@ -447,7 +447,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.80935904413e-06</v>
+        <v>1.80857518359e-06</v>
       </c>
       <c r="E3" t="n">
         <v>1.8e-06</v>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.80935904413e-06</v>
+        <v>1.80857518359e-06</v>
       </c>
       <c r="E4" t="n">
         <v>1.8e-06</v>
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.80935904413e-06</v>
+        <v>1.80857518359e-06</v>
       </c>
       <c r="E7" t="n">
         <v>1.8e-06</v>

--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -430,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.80857518359e-06</v>
+        <v>1.80935904413e-06</v>
       </c>
       <c r="E2" t="n">
         <v>1.8e-06</v>
@@ -447,7 +447,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.80857518359e-06</v>
+        <v>1.80935904413e-06</v>
       </c>
       <c r="E3" t="n">
         <v>1.8e-06</v>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.80857518359e-06</v>
+        <v>1.80935904413e-06</v>
       </c>
       <c r="E4" t="n">
         <v>1.8e-06</v>
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.80857518359e-06</v>
+        <v>1.80935904413e-06</v>
       </c>
       <c r="E7" t="n">
         <v>1.8e-06</v>

--- a/fixtures/output/01043110000366247_incidence.xlsx
+++ b/fixtures/output/01043110000366247_incidence.xlsx
@@ -43,13 +43,13 @@
     <t>CEOT0001</t>
   </si>
   <si>
-    <t>Ethyl benzene</t>
-  </si>
-  <si>
-    <t>Toluene</t>
-  </si>
-  <si>
-    <t>Xylenes (mixed)</t>
+    <t>ethyl benzene</t>
+  </si>
+  <si>
+    <t>toluene</t>
+  </si>
+  <si>
+    <t>xylenes (mixed)</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.80935904413e-06</v>
+        <v>1.80935905528e-06</v>
       </c>
       <c r="E2" t="n">
         <v>1.8e-06</v>
@@ -447,7 +447,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.80935904413e-06</v>
+        <v>1.80935905528e-06</v>
       </c>
       <c r="E3" t="n">
         <v>1.8e-06</v>
@@ -464,7 +464,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.80935904413e-06</v>
+        <v>1.80935905528e-06</v>
       </c>
       <c r="E4" t="n">
         <v>1.8e-06</v>
@@ -515,7 +515,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.80935904413e-06</v>
+        <v>1.80935905528e-06</v>
       </c>
       <c r="E7" t="n">
         <v>1.8e-06</v>
